--- a/medicine/Mort/Cimetière_d'Aşiyan/Cimetière_d'Aşiyan.xlsx
+++ b/medicine/Mort/Cimetière_d'Aşiyan/Cimetière_d'Aşiyan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27A%C5%9Fiyan</t>
+          <t>Cimetière_d'Aşiyan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Aşiyan (turc : Aşiyan Mezarlığı, prononcé [a:ʃijan mezɑɾɫɯ:'ɯ])  est un cimetière de la rive européenne d'Istanbul, situé dans les quartiers de Bebek et de Rumelihisarı.
-Situé face au Bosphore, il est considéré comme un « cimetière de célébrités »[1] et plus particulièrement de poètes. Le prix d'achat d'une concession était fin 2015 de 18 000 livres turques[1], ce qui en fait un des cimetières les plus chers d'Istanbul[2]. Il n'y avait à cette date plus de places libres[1].
-Le 20 mai 2010 un individu déséquilibré y a abattu un policier[3].
-Aşiyan signifie nid[4].
+Situé face au Bosphore, il est considéré comme un « cimetière de célébrités » et plus particulièrement de poètes. Le prix d'achat d'une concession était fin 2015 de 18 000 livres turques, ce qui en fait un des cimetières les plus chers d'Istanbul. Il n'y avait à cette date plus de places libres.
+Le 20 mai 2010 un individu déséquilibré y a abattu un policier.
+Aşiyan signifie nid.
 </t>
         </is>
       </c>
